--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cfh-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cfh-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6718046666666666</v>
+        <v>0.7080493333333333</v>
       </c>
       <c r="H2">
-        <v>2.015414</v>
+        <v>2.124148</v>
       </c>
       <c r="I2">
-        <v>0.006062562609515538</v>
+        <v>0.008172603973273591</v>
       </c>
       <c r="J2">
-        <v>0.006345114347523019</v>
+        <v>0.008303215621510202</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.146719</v>
+        <v>0.14839</v>
       </c>
       <c r="N2">
-        <v>0.440157</v>
+        <v>0.44517</v>
       </c>
       <c r="O2">
-        <v>0.002213357657235064</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P2">
-        <v>0.002213357657235064</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q2">
-        <v>0.09856650888866667</v>
+        <v>0.1050674405733333</v>
       </c>
       <c r="R2">
-        <v>0.887098579998</v>
+        <v>0.94560696516</v>
       </c>
       <c r="S2">
-        <v>1.341861937423821E-05</v>
+        <v>2.287480144297811E-05</v>
       </c>
       <c r="T2">
-        <v>1.404400742712214E-05</v>
+        <v>2.324829903742467E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6718046666666666</v>
+        <v>0.7080493333333333</v>
       </c>
       <c r="H3">
-        <v>2.015414</v>
+        <v>2.124148</v>
       </c>
       <c r="I3">
-        <v>0.006062562609515538</v>
+        <v>0.008172603973273591</v>
       </c>
       <c r="J3">
-        <v>0.006345114347523019</v>
+        <v>0.008303215621510202</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.93198366666667</v>
+        <v>50.610032</v>
       </c>
       <c r="N3">
-        <v>86.795951</v>
+        <v>151.830096</v>
       </c>
       <c r="O3">
-        <v>0.4364589970461662</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P3">
-        <v>0.4364589970461662</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q3">
-        <v>19.43664164319044</v>
+        <v>35.83439941757867</v>
       </c>
       <c r="R3">
-        <v>174.929774788714</v>
+        <v>322.509594758208</v>
       </c>
       <c r="S3">
-        <v>0.00264605999607874</v>
+        <v>0.007801701145783195</v>
       </c>
       <c r="T3">
-        <v>0.002769382244263136</v>
+        <v>0.007929086584201306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6718046666666666</v>
+        <v>0.7080493333333333</v>
       </c>
       <c r="H4">
-        <v>2.015414</v>
+        <v>2.124148</v>
       </c>
       <c r="I4">
-        <v>0.006062562609515538</v>
+        <v>0.008172603973273591</v>
       </c>
       <c r="J4">
-        <v>0.006345114347523019</v>
+        <v>0.008303215621510202</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>37.20927366666667</v>
+        <v>0.0541875</v>
       </c>
       <c r="N4">
-        <v>111.627821</v>
+        <v>0.108375</v>
       </c>
       <c r="O4">
-        <v>0.5613276452965987</v>
+        <v>0.001022095223059374</v>
       </c>
       <c r="P4">
-        <v>0.5613276452965988</v>
+        <v>0.0006816290453032835</v>
       </c>
       <c r="Q4">
-        <v>24.99736369254378</v>
+        <v>0.03836742325</v>
       </c>
       <c r="R4">
-        <v>224.976273232894</v>
+        <v>0.2302045395</v>
       </c>
       <c r="S4">
-        <v>0.00340308399406256</v>
+        <v>8.353179481038995E-06</v>
       </c>
       <c r="T4">
-        <v>0.003561688095832761</v>
+        <v>5.659712937037308E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.16235166666667</v>
+        <v>0.7080493333333333</v>
       </c>
       <c r="H5">
-        <v>129.487055</v>
+        <v>2.124148</v>
       </c>
       <c r="I5">
-        <v>0.3895097374828606</v>
+        <v>0.008172603973273591</v>
       </c>
       <c r="J5">
-        <v>0.4076632247761514</v>
+        <v>0.008303215621510202</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.146719</v>
+        <v>2.203488</v>
       </c>
       <c r="N5">
-        <v>0.440157</v>
+        <v>6.610464</v>
       </c>
       <c r="O5">
-        <v>0.002213357657235064</v>
+        <v>0.04156262161695323</v>
       </c>
       <c r="P5">
-        <v>0.002213357657235064</v>
+        <v>0.04157678676199977</v>
       </c>
       <c r="Q5">
-        <v>6.332737074181667</v>
+        <v>1.560178209408</v>
       </c>
       <c r="R5">
-        <v>56.994633667635</v>
+        <v>14.041603884672</v>
       </c>
       <c r="S5">
-        <v>0.0008621243600253091</v>
+        <v>0.0003396748465663788</v>
       </c>
       <c r="T5">
-        <v>0.0009023045201314335</v>
+        <v>0.000345221025334435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>129.487055</v>
       </c>
       <c r="I6">
-        <v>0.3895097374828606</v>
+        <v>0.4981980634967507</v>
       </c>
       <c r="J6">
-        <v>0.4076632247761514</v>
+        <v>0.5061600876489541</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>28.93198366666667</v>
+        <v>0.14839</v>
       </c>
       <c r="N6">
-        <v>86.795951</v>
+        <v>0.44517</v>
       </c>
       <c r="O6">
-        <v>0.4364589970461662</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P6">
-        <v>0.4364589970461662</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q6">
-        <v>1248.772453434923</v>
+        <v>6.404861363816666</v>
       </c>
       <c r="R6">
-        <v>11238.95208091431</v>
+        <v>57.64375227435</v>
       </c>
       <c r="S6">
-        <v>0.1700050293614848</v>
+        <v>0.001394437050789769</v>
       </c>
       <c r="T6">
-        <v>0.1779282822184048</v>
+        <v>0.001417205287068253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>129.487055</v>
       </c>
       <c r="I7">
-        <v>0.3895097374828606</v>
+        <v>0.4981980634967507</v>
       </c>
       <c r="J7">
-        <v>0.4076632247761514</v>
+        <v>0.5061600876489541</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>37.20927366666667</v>
+        <v>50.610032</v>
       </c>
       <c r="N7">
-        <v>111.627821</v>
+        <v>151.830096</v>
       </c>
       <c r="O7">
-        <v>0.5613276452965987</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P7">
-        <v>0.5613276452965988</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q7">
-        <v>1606.039755261906</v>
+        <v>2184.447999045253</v>
       </c>
       <c r="R7">
-        <v>14454.35779735715</v>
+        <v>19660.03199140728</v>
       </c>
       <c r="S7">
-        <v>0.2186425837613505</v>
+        <v>0.4755880029817092</v>
       </c>
       <c r="T7">
-        <v>0.2288326380376151</v>
+        <v>0.4833533589129555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.686232</v>
+        <v>43.16235166666667</v>
       </c>
       <c r="H8">
-        <v>65.058696</v>
+        <v>129.487055</v>
       </c>
       <c r="I8">
-        <v>0.1957029264426257</v>
+        <v>0.4981980634967507</v>
       </c>
       <c r="J8">
-        <v>0.2048238552578966</v>
+        <v>0.5061600876489541</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.146719</v>
+        <v>0.0541875</v>
       </c>
       <c r="N8">
-        <v>0.440157</v>
+        <v>0.108375</v>
       </c>
       <c r="O8">
-        <v>0.002213357657235064</v>
+        <v>0.001022095223059374</v>
       </c>
       <c r="P8">
-        <v>0.002213357657235064</v>
+        <v>0.0006816290453032835</v>
       </c>
       <c r="Q8">
-        <v>3.181782272808</v>
+        <v>2.3388599309375</v>
       </c>
       <c r="R8">
-        <v>28.636040455272</v>
+        <v>14.033159585625</v>
       </c>
       <c r="S8">
-        <v>0.0004331605707850961</v>
+        <v>0.0005092058608374595</v>
       </c>
       <c r="T8">
-        <v>0.0004533484484194719</v>
+        <v>0.0003450134173147829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.686232</v>
+        <v>43.16235166666667</v>
       </c>
       <c r="H9">
-        <v>65.058696</v>
+        <v>129.487055</v>
       </c>
       <c r="I9">
-        <v>0.1957029264426257</v>
+        <v>0.4981980634967507</v>
       </c>
       <c r="J9">
-        <v>0.2048238552578966</v>
+        <v>0.5061600876489541</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>28.93198366666667</v>
+        <v>2.203488</v>
       </c>
       <c r="N9">
-        <v>86.795951</v>
+        <v>6.610464</v>
       </c>
       <c r="O9">
-        <v>0.4364589970461662</v>
+        <v>0.04156262161695323</v>
       </c>
       <c r="P9">
-        <v>0.4364589970461662</v>
+        <v>0.04157678676199977</v>
       </c>
       <c r="Q9">
-        <v>627.425710015544</v>
+        <v>95.10772394928</v>
       </c>
       <c r="R9">
-        <v>5646.831390139896</v>
+        <v>855.9695155435201</v>
       </c>
       <c r="S9">
-        <v>0.08541630299414807</v>
+        <v>0.02070641760341429</v>
       </c>
       <c r="T9">
-        <v>0.08939721443699067</v>
+        <v>0.02104451003161568</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.686232</v>
+        <v>20.47870633333333</v>
       </c>
       <c r="H10">
-        <v>65.058696</v>
+        <v>61.436119</v>
       </c>
       <c r="I10">
-        <v>0.1957029264426257</v>
+        <v>0.2363738638936219</v>
       </c>
       <c r="J10">
-        <v>0.2048238552578966</v>
+        <v>0.2401515068656985</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>37.20927366666667</v>
+        <v>0.14839</v>
       </c>
       <c r="N10">
-        <v>111.627821</v>
+        <v>0.44517</v>
       </c>
       <c r="O10">
-        <v>0.5613276452965987</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P10">
-        <v>0.5613276452965988</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q10">
-        <v>806.9289412868241</v>
+        <v>3.038835232803333</v>
       </c>
       <c r="R10">
-        <v>7262.360471581415</v>
+        <v>27.34951709523</v>
       </c>
       <c r="S10">
-        <v>0.1098534628776926</v>
+        <v>0.0006616012742766393</v>
       </c>
       <c r="T10">
-        <v>0.1149732923724865</v>
+        <v>0.0006724038373083265</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.8035735</v>
+        <v>20.47870633333333</v>
       </c>
       <c r="H11">
-        <v>29.607147</v>
+        <v>61.436119</v>
       </c>
       <c r="I11">
-        <v>0.1335917948197964</v>
+        <v>0.2363738638936219</v>
       </c>
       <c r="J11">
-        <v>0.09321198186522625</v>
+        <v>0.2401515068656985</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,95 +1116,95 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.146719</v>
+        <v>50.610032</v>
       </c>
       <c r="N11">
-        <v>0.440157</v>
+        <v>151.830096</v>
       </c>
       <c r="O11">
-        <v>0.002213357657235064</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P11">
-        <v>0.002213357657235064</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q11">
-        <v>2.1719655003465</v>
+        <v>1036.427982848603</v>
       </c>
       <c r="R11">
-        <v>13.031793002079</v>
+        <v>9327.851845637424</v>
       </c>
       <c r="S11">
-        <v>0.000295686422008172</v>
+        <v>0.2256463485570557</v>
       </c>
       <c r="T11">
-        <v>0.0002063114538074544</v>
+        <v>0.2293306807945091</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.8035735</v>
+        <v>20.47870633333333</v>
       </c>
       <c r="H12">
-        <v>29.607147</v>
+        <v>61.436119</v>
       </c>
       <c r="I12">
-        <v>0.1335917948197964</v>
+        <v>0.2363738638936219</v>
       </c>
       <c r="J12">
-        <v>0.09321198186522625</v>
+        <v>0.2401515068656985</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>28.93198366666667</v>
+        <v>0.0541875</v>
       </c>
       <c r="N12">
-        <v>86.795951</v>
+        <v>0.108375</v>
       </c>
       <c r="O12">
-        <v>0.4364589970461662</v>
+        <v>0.001022095223059374</v>
       </c>
       <c r="P12">
-        <v>0.4364589970461662</v>
+        <v>0.0006816290453032835</v>
       </c>
       <c r="Q12">
-        <v>428.2967467102995</v>
+        <v>1.1096898994375</v>
       </c>
       <c r="R12">
-        <v>2569.780480261797</v>
+        <v>6.658139396625</v>
       </c>
       <c r="S12">
-        <v>0.05830734078064558</v>
+        <v>0.0002415965971417575</v>
       </c>
       <c r="T12">
-        <v>0.04068320811758208</v>
+        <v>0.000163694242353011</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.8035735</v>
+        <v>20.47870633333333</v>
       </c>
       <c r="H13">
-        <v>29.607147</v>
+        <v>61.436119</v>
       </c>
       <c r="I13">
-        <v>0.1335917948197964</v>
+        <v>0.2363738638936219</v>
       </c>
       <c r="J13">
-        <v>0.09321198186522625</v>
+        <v>0.2401515068656985</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>37.20927366666667</v>
+        <v>2.203488</v>
       </c>
       <c r="N13">
-        <v>111.627821</v>
+        <v>6.610464</v>
       </c>
       <c r="O13">
-        <v>0.5613276452965987</v>
+        <v>0.04156262161695323</v>
       </c>
       <c r="P13">
-        <v>0.5613276452965988</v>
+        <v>0.04157678676199977</v>
       </c>
       <c r="Q13">
-        <v>550.8302176061145</v>
+        <v>45.124583661024</v>
       </c>
       <c r="R13">
-        <v>3304.981305636687</v>
+        <v>406.121252949216</v>
       </c>
       <c r="S13">
-        <v>0.0749887676171427</v>
+        <v>0.00982431746514781</v>
       </c>
       <c r="T13">
-        <v>0.05232246229383673</v>
+        <v>0.009984727991528069</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.48803466666666</v>
+        <v>4.0884615</v>
       </c>
       <c r="H14">
-        <v>91.46410399999999</v>
+        <v>8.176923</v>
       </c>
       <c r="I14">
-        <v>0.2751329786452017</v>
+        <v>0.04719074664214938</v>
       </c>
       <c r="J14">
-        <v>0.2879558237532028</v>
+        <v>0.0319632882405021</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.146719</v>
+        <v>0.14839</v>
       </c>
       <c r="N14">
-        <v>0.440157</v>
+        <v>0.44517</v>
       </c>
       <c r="O14">
-        <v>0.002213357657235064</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P14">
-        <v>0.002213357657235064</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q14">
-        <v>4.473173958258667</v>
+        <v>0.606686801985</v>
       </c>
       <c r="R14">
-        <v>40.258565624328</v>
+        <v>3.64012081191</v>
       </c>
       <c r="S14">
-        <v>0.0006089676850422485</v>
+        <v>0.0001320850689590751</v>
       </c>
       <c r="T14">
-        <v>0.0006373492274495819</v>
+        <v>8.949449431489503E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.48803466666666</v>
+        <v>4.0884615</v>
       </c>
       <c r="H15">
-        <v>91.46410399999999</v>
+        <v>8.176923</v>
       </c>
       <c r="I15">
-        <v>0.2751329786452017</v>
+        <v>0.04719074664214938</v>
       </c>
       <c r="J15">
-        <v>0.2879558237532028</v>
+        <v>0.0319632882405021</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.93198366666667</v>
+        <v>50.610032</v>
       </c>
       <c r="N15">
-        <v>86.795951</v>
+        <v>151.830096</v>
       </c>
       <c r="O15">
-        <v>0.4364589970461662</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P15">
-        <v>0.4364589970461662</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q15">
-        <v>882.0793210047671</v>
+        <v>206.917167345768</v>
       </c>
       <c r="R15">
-        <v>7938.713889042903</v>
+        <v>1241.503004074608</v>
       </c>
       <c r="S15">
-        <v>0.120084263913809</v>
+        <v>0.0450490569899656</v>
       </c>
       <c r="T15">
-        <v>0.1256809100289255</v>
+        <v>0.03052307582115139</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.0884615</v>
+      </c>
+      <c r="H16">
+        <v>8.176923</v>
+      </c>
+      <c r="I16">
+        <v>0.04719074664214938</v>
+      </c>
+      <c r="J16">
+        <v>0.0319632882405021</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0541875</v>
+      </c>
+      <c r="N16">
+        <v>0.108375</v>
+      </c>
+      <c r="O16">
+        <v>0.001022095223059374</v>
+      </c>
+      <c r="P16">
+        <v>0.0006816290453032835</v>
+      </c>
+      <c r="Q16">
+        <v>0.22154350753125</v>
+      </c>
+      <c r="R16">
+        <v>0.8861740301250001</v>
+      </c>
+      <c r="S16">
+        <v>4.823343671554606E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.178710564812712E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.0884615</v>
+      </c>
+      <c r="H17">
+        <v>8.176923</v>
+      </c>
+      <c r="I17">
+        <v>0.04719074664214938</v>
+      </c>
+      <c r="J17">
+        <v>0.0319632882405021</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>2.203488</v>
+      </c>
+      <c r="N17">
+        <v>6.610464</v>
+      </c>
+      <c r="O17">
+        <v>0.04156262161695323</v>
+      </c>
+      <c r="P17">
+        <v>0.04157678676199977</v>
+      </c>
+      <c r="Q17">
+        <v>9.008875853712</v>
+      </c>
+      <c r="R17">
+        <v>54.05325512227201</v>
+      </c>
+      <c r="S17">
+        <v>0.001961371146509161</v>
+      </c>
+      <c r="T17">
+        <v>0.001328930819387691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>30.48803466666666</v>
-      </c>
-      <c r="H16">
-        <v>91.46410399999999</v>
-      </c>
-      <c r="I16">
-        <v>0.2751329786452017</v>
-      </c>
-      <c r="J16">
-        <v>0.2879558237532028</v>
-      </c>
-      <c r="K16">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>18.199363</v>
+      </c>
+      <c r="H18">
+        <v>54.598089</v>
+      </c>
+      <c r="I18">
+        <v>0.2100647219942044</v>
+      </c>
+      <c r="J18">
+        <v>0.2134219016233352</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="L16">
+      <c r="L18">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M16">
-        <v>37.20927366666667</v>
-      </c>
-      <c r="N16">
-        <v>111.627821</v>
-      </c>
-      <c r="O16">
-        <v>0.5613276452965987</v>
-      </c>
-      <c r="P16">
-        <v>0.5613276452965988</v>
-      </c>
-      <c r="Q16">
-        <v>1134.43762547082</v>
-      </c>
-      <c r="R16">
-        <v>10209.93862923738</v>
-      </c>
-      <c r="S16">
-        <v>0.1544397470463504</v>
-      </c>
-      <c r="T16">
-        <v>0.1616375644968278</v>
+      <c r="M18">
+        <v>0.14839</v>
+      </c>
+      <c r="N18">
+        <v>0.44517</v>
+      </c>
+      <c r="O18">
+        <v>0.002798961202302754</v>
+      </c>
+      <c r="P18">
+        <v>0.002799915128928837</v>
+      </c>
+      <c r="Q18">
+        <v>2.70060347557</v>
+      </c>
+      <c r="R18">
+        <v>24.30543128013</v>
+      </c>
+      <c r="S18">
+        <v>0.000587963006834292</v>
+      </c>
+      <c r="T18">
+        <v>0.0005975632111999382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>18.199363</v>
+      </c>
+      <c r="H19">
+        <v>54.598089</v>
+      </c>
+      <c r="I19">
+        <v>0.2100647219942044</v>
+      </c>
+      <c r="J19">
+        <v>0.2134219016233352</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>50.610032</v>
+      </c>
+      <c r="N19">
+        <v>151.830096</v>
+      </c>
+      <c r="O19">
+        <v>0.9546163219576846</v>
+      </c>
+      <c r="P19">
+        <v>0.9549416690637682</v>
+      </c>
+      <c r="Q19">
+        <v>921.070343809616</v>
+      </c>
+      <c r="R19">
+        <v>8289.633094286544</v>
+      </c>
+      <c r="S19">
+        <v>0.2005312122831709</v>
+      </c>
+      <c r="T19">
+        <v>0.2038054669509511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>18.199363</v>
+      </c>
+      <c r="H20">
+        <v>54.598089</v>
+      </c>
+      <c r="I20">
+        <v>0.2100647219942044</v>
+      </c>
+      <c r="J20">
+        <v>0.2134219016233352</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0541875</v>
+      </c>
+      <c r="N20">
+        <v>0.108375</v>
+      </c>
+      <c r="O20">
+        <v>0.001022095223059374</v>
+      </c>
+      <c r="P20">
+        <v>0.0006816290453032835</v>
+      </c>
+      <c r="Q20">
+        <v>0.9861779825625001</v>
+      </c>
+      <c r="R20">
+        <v>5.917067895375</v>
+      </c>
+      <c r="S20">
+        <v>0.0002147061488835717</v>
+      </c>
+      <c r="T20">
+        <v>0.0001454745670503253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>18.199363</v>
+      </c>
+      <c r="H21">
+        <v>54.598089</v>
+      </c>
+      <c r="I21">
+        <v>0.2100647219942044</v>
+      </c>
+      <c r="J21">
+        <v>0.2134219016233352</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>2.203488</v>
+      </c>
+      <c r="N21">
+        <v>6.610464</v>
+      </c>
+      <c r="O21">
+        <v>0.04156262161695323</v>
+      </c>
+      <c r="P21">
+        <v>0.04157678676199977</v>
+      </c>
+      <c r="Q21">
+        <v>40.102077978144</v>
+      </c>
+      <c r="R21">
+        <v>360.918701803296</v>
+      </c>
+      <c r="S21">
+        <v>0.008730840555315589</v>
+      </c>
+      <c r="T21">
+        <v>0.008873396894133901</v>
       </c>
     </row>
   </sheetData>
